--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_234.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_234.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,622 +488,652 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2318840579710145</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>[['F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(97.62, 113.78)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(10.94, 16.32)]</t>
+          <t>[('0:00:19.860000', '0:00:22.320000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:07.900000', '0:00:16.080000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_87</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2019230769230769</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
-        </is>
+          <t>jaah_30</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.15</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:min', 'C', 'F:min']]</t>
+          <t>[['Bb', 'F:7', 'Bb']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(81.42, 90.04)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(0.6, 5.9)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:12.510000', '0:00:13.910000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:41.700000', '0:00:57.940000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_73</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_49</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.05875706214689266</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E:min', 'A', 'D'], ['A', 'E:min', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_213</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2916666666666666</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:min', 'D', 'G'], ['D', 'A:min', 'D']]</t>
+          <t>[['G:7', 'C:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(5.416621, 8.435215), (1.527278, 3.884104)]</t>
+          <t>[['E:7', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(1.187152, 7.043615), (40.700939, 46.703296)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:05.500000', '0:00:10.400000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:00.442301', '0:00:13.370949')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_49</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_74</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G', 'G', 'G']]</t>
-        </is>
+          <t>isophonics_78</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1108870967741935</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb', 'Eb']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(20.940758, 23.936132)]</t>
+          <t>[['G:maj', 'C:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(18.47, 20.04)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:33.814625', '0:00:37.738798')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:10.540000', '0:00:12.600000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_166</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2527173913043478</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'G']]</t>
-        </is>
+          <t>jaah_88</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>jaah_70</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.03321678321678322</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>[['G:min7', 'C:7', 'F:7', 'F:7']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(17.839297, 22.785147)]</t>
+          <t>[['Eb:min7', 'Ab:7', 'Db:7', 'Db:7/3']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(10.953139, 19.672232)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:13.420000', '0:00:19.680000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:53.250000', '0:00:55.470000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_6</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.08145131432802666</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['Db', 'Db', 'Ab', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['Ab', 'Ab', 'Eb', 'Eb']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(117.0, 121.03)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(234.42, 239.34)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:01.460000', '0:00:11.260000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:08.080000', '0:00:24.940000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D#:maj/A#', 'D#:min/A#', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G/3', 'G:min/b3', 'D:maj']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(5.32, 11.7)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(64.294, 67.223)]</t>
+          <t>[('0:00:05.460000', '0:02:06.860000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:00:06.300000', '0:01:53.780000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_20</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2375</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(229.44, 238.32)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(8.86, 14.12)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:06.160000', '0:00:15.080000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:02.420000', '0:01:04.620000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_266</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_74</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3690476190476191</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A', 'A/b7', 'C', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E', 'E', 'G', 'A', 'E']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(21.788299, 28.963265)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(15.089433, 40.910022)]</t>
+          <t>[('0:00:13.800000', '0:00:18.440000'), ('0:00:24.260000', '0:00:27.200000'), ('0:00:19.120000', '0:00:20.760000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
+          <t>[('0:00:13.980000', '0:00:18.160000'), ('0:00:23.460000', '0:00:26.480000'), ('0:00:18.840000', '0:00:20.320000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_243</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1350574712643678</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_65</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3653846153846154</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G', 'A', 'D']]</t>
+          <t>[['A#:maj', 'D#:min', 'B:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(19.616133, 25.815861)]</t>
+          <t>[['C#', 'F#:min/5', 'D']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(33.431496, 38.307687)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
+          <t>[('0:00:05.920000', '0:00:09.540000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:01:19.910000', '0:01:26.123000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_171</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1087223587223587</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E', 'E', 'E']]</t>
-        </is>
+          <t>isophonics_79</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_275</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3995771670190275</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb', 'Bb']]</t>
+          <t>[['B', 'E', 'A', 'E', 'B', 'A', 'E'], ['E', 'A', 'E', 'B', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(12.263975, 17.488465)]</t>
+          <t>[['D', 'G', 'C', 'G', 'D', 'C', 'G'], ['G', 'C', 'G', 'D', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(0.440395, 6.879478)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:05.682280', '0:00:25.505471'), ('0:00:07.284457', '0:00:27.067858')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:28.800769', '0:00:50.094027'), ('0:00:51.614934', '0:01:13.499741')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(9.48, 33.68)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(38.12, 52.64)]</t>
+          <t>[('0:00:39.020000', '0:00:57.200000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:10.380000', '0:01:30.980000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.06466559226430299</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'Db'], ['Ab', 'Ab', 'Db']]</t>
-        </is>
+          <t>schubert-winterreise_174</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_8</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['B:7', 'E', 'A'], ['E', 'E/3', 'A']]</t>
+          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(131.61, 134.27), (123.03, 126.19)]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(65.956303, 75.755124), (27.610855, 30.035034)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:15.360000', '0:00:45.820000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:14.440000', '0:00:47.400000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3342175066312997</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(0.22, 8.88)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(33.1, 49.66)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:18.160000', '0:00:47.440000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_52</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1155327342747112</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(6.357029, 23.632675)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(62.53, 66.23)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:02:41.980000', '0:02:46.620000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:02:30.160000', '0:02:34.940000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_182</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_27</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2767857142857143</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G', 'C/5', 'G']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(59.182426, 64.464965)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(62.48, 64.92)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
